--- a/example/inputs/functional_units_sander.xlsx
+++ b/example/inputs/functional_units_sander.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4868D464-F212-4729-AF5D-8F836E6154D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A25AAE6-BA5F-4A6B-99EC-E58F40487861}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t>GLO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>RER</t>
   </si>
   <si>
-    <t>transport, passenger car, electric</t>
-  </si>
-  <si>
-    <t>transport, passenger car, small size, petrol, EURO 5</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -46,30 +37,6 @@
     <t>database</t>
   </si>
   <si>
-    <t>electricity, high voltage</t>
-  </si>
-  <si>
-    <t>treatment of bagasse, from sweet sorghum, in heat and power co-generation unit, 6400kW thermal</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, other than natural gas</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
-    <t>wood pellets, burned in stirling heat and power co-generation unit, 3kW electrical, future</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>heat, future</t>
-  </si>
-  <si>
-    <t>cutoff38</t>
-  </si>
-  <si>
     <t>coated magnet</t>
   </si>
   <si>
@@ -77,6 +44,12 @@
   </si>
   <si>
     <t>SUSMAGPRO</t>
+  </si>
+  <si>
+    <t>Testing bonded magnets</t>
+  </si>
+  <si>
+    <t>tested bonded magnet</t>
   </si>
 </sst>
 </file>
@@ -424,129 +397,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
